--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F39EEE-0E59-450C-B9CE-CB2FD90FC453}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825246AD-C269-4BDA-B969-968DFA5B70F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="780" windowWidth="23535" windowHeight="14850" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="2355" yWindow="960" windowWidth="23535" windowHeight="14850" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="14">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +84,23 @@
   </si>
   <si>
     <t>FR60PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川ｼｭｰﾃｨﾝｸﾞｸﾗﾌﾞ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中太郎</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -450,11 +467,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -480,6 +500,15 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -488,6 +517,15 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -496,6 +534,15 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -504,6 +551,15 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -512,6 +568,15 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -520,10 +585,20 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -532,7 +607,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -561,6 +636,15 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -569,6 +653,15 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -577,6 +670,15 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -585,6 +687,15 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -593,6 +704,15 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -600,6 +720,15 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +742,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -642,6 +771,15 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -650,6 +788,15 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -658,6 +805,15 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -666,6 +822,15 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -674,6 +839,15 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -681,6 +855,15 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +878,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -724,6 +907,15 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -732,6 +924,15 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -740,6 +941,15 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -748,6 +958,15 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -756,6 +975,15 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -763,6 +991,15 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +1013,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -805,6 +1042,15 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -813,6 +1059,15 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -821,6 +1076,15 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -829,6 +1093,15 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -837,6 +1110,15 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -844,6 +1126,15 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1148,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -886,6 +1177,15 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -894,6 +1194,15 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -902,6 +1211,15 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -910,6 +1228,15 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -918,6 +1245,15 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -925,6 +1261,15 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -937,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7D63E-20CF-4AD5-A317-30EB65A291C5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -967,6 +1312,15 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -975,6 +1329,15 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -983,6 +1346,15 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -991,6 +1363,15 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -999,6 +1380,15 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -1006,6 +1396,15 @@
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825246AD-C269-4BDA-B969-968DFA5B70F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFCBD3-96BC-4590-AB92-11D868D431F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="960" windowWidth="23535" windowHeight="14850" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="5715" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="16">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +100,32 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川　シューティング一郎二郎三郎四郎</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチロウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジロウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サブロウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シロウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -593,6 +619,22 @@
       </c>
       <c r="E7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1282,11 +1324,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7D63E-20CF-4AD5-A317-30EB65A291C5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1316,10 +1361,10 @@
         <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">

--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFFCBD3-96BC-4590-AB92-11D868D431F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76955DF7-8891-4397-B5CF-A34C16D6743E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="585" yWindow="1410" windowWidth="13125" windowHeight="12435" firstSheet="4" activeTab="7" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="R3X40" sheetId="12" r:id="rId5"/>
     <sheet name="R60PR" sheetId="13" r:id="rId6"/>
     <sheet name="AR60PR" sheetId="14" r:id="rId7"/>
+    <sheet name="AR40PR" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -84,23 +85,6 @@
   </si>
   <si>
     <t>FR60PR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神奈川ｼｭｰﾃｨﾝｸﾞｸﾗﾌﾞ</t>
-    <rPh sb="0" eb="3">
-      <t>カナガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中太郎</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タロウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -111,21 +95,567 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>神奈川　シューティング一郎二郎三郎四郎</t>
+    <t>岡田　直也</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITALY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weithaler Simon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM KABASHIMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="2">
+      <t>サカエキタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームGOGO!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青山　敬志</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中　貴久</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカヒサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田　裕一</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梅木　竜一</t>
+    <rPh sb="0" eb="2">
+      <t>ウメキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八川　稜佑</t>
+    <rPh sb="0" eb="1">
+      <t>ヤツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田　好生</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BACK FIRE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次郎長</t>
     <rPh sb="0" eb="3">
-      <t>カナガワ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチロウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジロウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サブロウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シロウ</t>
+      <t>ジロチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信田　健介</t>
+    <rPh sb="0" eb="2">
+      <t>ノブタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chatziplis Alexandros</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林　郁弥</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イクヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三島　裕介</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原　章宏</t>
+    <rPh sb="0" eb="2">
+      <t>シノハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝岡　弘幸</t>
+    <rPh sb="0" eb="2">
+      <t>カツオカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロユキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本　拓生</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正満　孝太</t>
+    <rPh sb="0" eb="2">
+      <t>マサミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町田健太郎</t>
+    <rPh sb="0" eb="2">
+      <t>マチダ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田　祐宏</t>
+    <rPh sb="0" eb="2">
+      <t>オダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津場　恭平</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片山　敏郎</t>
+    <rPh sb="0" eb="2">
+      <t>カタヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="5">
+      <t>サカエキタサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オール日大</t>
+    <rPh sb="3" eb="5">
+      <t>ニチダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一ノ渡　桜</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワタリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nardelli Elania</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gambaro Barbara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新井　陽菜</t>
+    <rPh sb="0" eb="2">
+      <t>アライ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒　早織</t>
+    <rPh sb="0" eb="2">
+      <t>イコマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大嶋美和子</t>
+    <rPh sb="0" eb="2">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミワコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小沢　　楓</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湯浅　菜月</t>
+    <rPh sb="0" eb="2">
+      <t>ユアサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社 銀座銃砲店</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジュウホウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おぉ明治</t>
+    <rPh sb="2" eb="4">
+      <t>メイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新里葉津紀</t>
+    <rPh sb="0" eb="2">
+      <t>ニイザト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田　優子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐々木亜子</t>
+    <rPh sb="0" eb="3">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松島　　愛</t>
+    <rPh sb="0" eb="2">
+      <t>マツシマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柳　あさこ</t>
+    <rPh sb="0" eb="1">
+      <t>ヤナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中里　志隠</t>
+    <rPh sb="0" eb="2">
+      <t>ナカザト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塚本麻由美</t>
+    <rPh sb="0" eb="2">
+      <t>ツカモト</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>マユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田　祐宏</t>
+    <rPh sb="0" eb="2">
+      <t>オタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉村　和翔</t>
+    <rPh sb="0" eb="2">
+      <t>スギムラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田　　亨</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南出　裕志</t>
+    <rPh sb="0" eb="2">
+      <t>ミナミデ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ココロザシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中　信彦</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノブヒコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲　　友美</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三橋こすも</t>
+    <rPh sb="0" eb="2">
+      <t>ミハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手塚　洋子</t>
+    <rPh sb="0" eb="2">
+      <t>テヅカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR40PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルズアイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM KSC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岐阜県ライフルクラブ</t>
+    <rPh sb="0" eb="3">
+      <t>ギフケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,6 +664,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,8 +706,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -527,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>247.1</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -544,13 +1080,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>246.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -561,13 +1097,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>224.9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -578,13 +1114,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>204.6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -595,13 +1131,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>183.6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -612,13 +1148,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -628,6 +1164,15 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>142.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -635,6 +1180,15 @@
       </c>
       <c r="B9">
         <v>8</v>
+      </c>
+      <c r="C9">
+        <v>120.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -646,13 +1200,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A856A3EC-70DA-4A55-A1BC-E60CBD3BCFBB}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -679,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>454.7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -696,13 +1253,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>454.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -713,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -730,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>431.6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -747,13 +1304,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>421.5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -764,13 +1321,47 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>399.8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>398.4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB411E5-09DC-4325-A3FC-D9483DE50812}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -813,14 +1404,14 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>115</v>
+      <c r="C2" s="1">
+        <v>624.6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -830,14 +1421,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>116</v>
+      <c r="C3" s="1">
+        <v>623.20000000000005</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -847,14 +1438,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>117</v>
+      <c r="C4" s="1">
+        <v>622.29999999999995</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -864,14 +1455,14 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>118</v>
+      <c r="C5" s="1">
+        <v>621.6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -881,14 +1472,14 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>119</v>
+      <c r="C6" s="1">
+        <v>621.29999999999995</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -898,14 +1489,48 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>120</v>
+      <c r="C7" s="1">
+        <v>620.20000000000005</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>619.6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>619</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B459E9FF-7F73-4008-BCBC-33C3E5BE8025}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -950,13 +1575,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>247.6</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -967,13 +1592,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>247.2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -984,13 +1609,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>225.4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1001,13 +1626,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>203.9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1018,13 +1643,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>182.4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1035,13 +1660,47 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>161.9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>141.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>118.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1052,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC361DCD-25A3-43F3-BB99-162C379AE88B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1085,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>458.3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1102,13 +1761,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>453.4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1119,13 +1778,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>442.4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1136,13 +1795,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>431.7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1153,13 +1812,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>418.4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1170,27 +1829,62 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>408.1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>397.7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>397.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEBF9D-7D08-4B30-8B10-2A07CFB3FA00}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1219,14 +1913,14 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>115</v>
+      <c r="C2" s="1">
+        <v>615.4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1236,14 +1930,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>116</v>
+      <c r="C3" s="1">
+        <v>613.4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1253,14 +1947,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>117</v>
+      <c r="C4" s="1">
+        <v>613.29999999999995</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1270,14 +1964,14 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>118</v>
+      <c r="C5" s="1">
+        <v>613.20000000000005</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1287,14 +1981,14 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>119</v>
+      <c r="C6" s="1">
+        <v>612.1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1304,14 +1998,48 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>120</v>
+      <c r="C7" s="1">
+        <v>611.1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>609</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>607.20000000000005</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1322,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7D63E-20CF-4AD5-A317-30EB65A291C5}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1357,14 +2085,14 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>115</v>
+      <c r="C2" s="1">
+        <v>635.5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1374,14 +2102,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>116</v>
+      <c r="C3" s="1">
+        <v>629.5</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1391,14 +2119,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>117</v>
+      <c r="C4" s="1">
+        <v>629.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1408,14 +2136,14 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>118</v>
+      <c r="C5" s="1">
+        <v>628</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1425,14 +2153,14 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>119</v>
+      <c r="C6" s="1">
+        <v>626.20000000000005</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1442,15 +2170,165 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>120</v>
+      <c r="C7" s="1">
+        <v>626</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>624.79999999999995</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>624.6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C807122-7285-4B07-ADAB-771F9DF90431}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>628</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>622.79999999999995</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>612.20000000000005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>608.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76955DF7-8891-4397-B5CF-A34C16D6743E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A13976B-BC84-49CC-BDD1-EA877A65CC3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1410" windowWidth="13125" windowHeight="12435" firstSheet="4" activeTab="7" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="12720" yWindow="1515" windowWidth="13125" windowHeight="12435" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -439,16 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小沢　　楓</t>
-    <rPh sb="0" eb="2">
-      <t>オザワ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カエデ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>湯浅　菜月</t>
     <rPh sb="0" eb="2">
       <t>ユアサ</t>
@@ -518,16 +508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>松島　　愛</t>
-    <rPh sb="0" eb="2">
-      <t>マツシマ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>柳　あさこ</t>
     <rPh sb="0" eb="1">
       <t>ヤナギ</t>
@@ -584,13 +564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吉田　　亨</t>
-    <rPh sb="0" eb="2">
-      <t>ヨシダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>南出　裕志</t>
     <rPh sb="0" eb="2">
       <t>ミナミデ</t>
@@ -610,16 +583,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ノブヒコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仲　　友美</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トモミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,6 +619,43 @@
     <t>岐阜県ライフルクラブ</t>
     <rPh sb="0" eb="3">
       <t>ギフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲　友美</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トモミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松島　愛</t>
+    <rPh sb="0" eb="2">
+      <t>マツシマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田　亨</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小沢　楓</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カエデ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1683,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1700,7 +1700,7 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1784,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1801,7 +1801,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1815,10 +1815,10 @@
         <v>418.4</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1849,10 +1849,10 @@
         <v>397.7</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1937,7 +1937,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1971,7 +1971,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1988,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -2005,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -2022,7 +2022,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -2039,7 +2039,7 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2053,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -2126,7 +2126,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -2143,7 +2143,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -2160,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -2177,7 +2177,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C807122-7285-4B07-ADAB-771F9DF90431}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2264,12 +2264,12 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2278,15 +2278,15 @@
         <v>622.79999999999995</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2295,15 +2295,15 @@
         <v>612.20000000000005</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2312,10 +2312,10 @@
         <v>608.5</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -2333,5 +2333,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A13976B-BC84-49CC-BDD1-EA877A65CC3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C2916-80D0-495C-9CC3-155F5D071A72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="1515" windowWidth="13125" windowHeight="12435" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="16740" yWindow="1245" windowWidth="13125" windowHeight="12435" firstSheet="7" activeTab="8" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="R60PR" sheetId="13" r:id="rId6"/>
     <sheet name="AR60PR" sheetId="14" r:id="rId7"/>
     <sheet name="AR40PR" sheetId="15" r:id="rId8"/>
+    <sheet name="R1" sheetId="16" r:id="rId9"/>
+    <sheet name="R4" sheetId="17" r:id="rId10"/>
+    <sheet name="R6" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="85">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -656,6 +659,56 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>カエデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM KABSHIMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照井　彬</t>
+    <rPh sb="0" eb="2">
+      <t>テルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江口　利哉</t>
+    <rPh sb="0" eb="2">
+      <t>エグチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Novaglio Pamela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片山　友子</t>
+    <rPh sb="0" eb="2">
+      <t>カタヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トモコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1029,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D62887-572F-49AC-8CE1-113E14992275}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1195,6 +1248,106 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C8DFA2-40F9-4439-AB8A-3DED12C339CC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>615</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56F4205-7359-44CA-B1BD-5053093562B2}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>586.79999999999995</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2335,4 +2488,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F1A3E-CE98-419E-B016-D749BDB3BB0A}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>577.20000000000005</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>537.4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C2916-80D0-495C-9CC3-155F5D071A72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103811E2-6F35-46D9-8FB9-9375C7023DCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="1245" windowWidth="13125" windowHeight="12435" firstSheet="7" activeTab="8" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="13635" yWindow="1785" windowWidth="13125" windowHeight="12435" firstSheet="7" activeTab="9" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="AR60" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="85">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -667,10 +667,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TEAM KABSHIMA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>照井　彬</t>
     <rPh sb="0" eb="2">
       <t>テルイ</t>
@@ -710,6 +706,10 @@
     <rPh sb="3" eb="5">
       <t>トモコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>615.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -759,11 +759,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C8DFA2-40F9-4439-AB8A-3DED12C339CC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1280,19 +1283,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>615</v>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2494,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F1A3E-CE98-419E-B016-D749BDB3BB0A}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2532,10 +2535,10 @@
         <v>577.20000000000005</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -2552,7 +2555,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4F123F-095D-4F21-B0EC-4949E1EE6CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F008C8F2-8834-45EE-9B88-B859B5FD6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="930" windowWidth="21600" windowHeight="14445" activeTab="1" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11835" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="FR3X20" sheetId="9" r:id="rId1"/>
     <sheet name="FR60PR" sheetId="10" r:id="rId2"/>
+    <sheet name="R3X20" sheetId="11" r:id="rId3"/>
+    <sheet name="R60PR" sheetId="12" r:id="rId4"/>
+    <sheet name="AR60" sheetId="13" r:id="rId5"/>
+    <sheet name="AR60W" sheetId="14" r:id="rId6"/>
+    <sheet name="AR60PR" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -114,59 +119,537 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NRT</t>
-  </si>
-  <si>
-    <t>三浦　　洋</t>
-  </si>
-  <si>
-    <t>AVENGERS</t>
-  </si>
-  <si>
-    <t>太田　寛道</t>
-  </si>
-  <si>
-    <t>兼六</t>
-    <rPh sb="0" eb="2">
-      <t>ケンロク</t>
+    <t>AR60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田 直也</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木 航太</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原 章宏</t>
+    <rPh sb="0" eb="2">
+      <t>シノハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池邉 龍平</t>
+    <rPh sb="0" eb="2">
+      <t>イケベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中 貴久</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカヒサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>六笠 陸希</t>
+    <rPh sb="0" eb="2">
+      <t>ムカサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノゾミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴澤 圭祐</t>
+    <rPh sb="0" eb="2">
+      <t>アナザワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田 好生</t>
+    <rPh sb="0" eb="2">
+      <t>オサダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨシオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR60PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉村 和翔</t>
+    <rPh sb="0" eb="2">
+      <t>スギムラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田 亨</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田 祐宏</t>
+    <rPh sb="0" eb="2">
+      <t>オダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒居 祥一朗</t>
+    <rPh sb="0" eb="2">
+      <t>アライ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウイチロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅利 弥由</t>
+    <rPh sb="0" eb="2">
+      <t>アサリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR60W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一ノ渡 桜</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワタリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田 愛加里</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森本 怜花</t>
+    <rPh sb="0" eb="2">
+      <t>モリモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田 留那</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ルナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生駒 沙織</t>
+    <rPh sb="0" eb="2">
+      <t>イコマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙橋 佳伶</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大島 美和子</t>
+    <rPh sb="0" eb="2">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミワコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劉 炫慈</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次郎長</t>
+    <rPh sb="0" eb="3">
+      <t>ジロチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="2">
+      <t>サカエキタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R3X20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="5">
+      <t>サカエキタサンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社 銀座銃砲店</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ギンザジュウホウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉 朔海</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柳 あさこ</t>
+    <rPh sb="0" eb="1">
+      <t>ヤナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田 優子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田 志穏</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R60PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川 由佳</t>
+    <rPh sb="0" eb="3">
+      <t>ハセガワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木 由希恵</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川 真理絵</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小沢 楓</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カエデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小澤 綾香</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アヤカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back Fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>丸山　貴司</t>
-  </si>
-  <si>
-    <t>兼六</t>
-    <rPh sb="0" eb="1">
-      <t>ケンロク</t>
-    </rPh>
+    <t>unicorn</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>塚原　雄器</t>
-  </si>
-  <si>
-    <t>チームSOS</t>
-  </si>
-  <si>
-    <t>篠　　行雄</t>
-  </si>
-  <si>
-    <t>オールドタイマー</t>
-  </si>
-  <si>
-    <t>武部　英一</t>
-  </si>
-  <si>
-    <t>中村　彰博</t>
+    <t>チームFUJIHIRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームGOGO!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信田 健介</t>
+    <rPh sb="0" eb="2">
+      <t>ノブタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンスケ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>正満 孝太</t>
+    <rPh sb="0" eb="2">
+      <t>マサミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垣見 昌男</t>
+    <rPh sb="0" eb="2">
+      <t>カキミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片山 敏郎</t>
+    <rPh sb="0" eb="2">
+      <t>カタヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トシロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本 拓生</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田 裕太</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上竹 強仁</t>
+    <rPh sb="0" eb="2">
+      <t>ウエタケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -283,7 +766,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +809,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -829,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB411E5-09DC-4325-A3FC-D9483DE50812}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -860,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>624.6</v>
+        <v>624.29999999999995</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -877,13 +1366,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>623.20000000000005</v>
+        <v>624.29999999999995</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -894,13 +1383,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>622.29999999999995</v>
+        <v>624.29999999999995</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -911,13 +1400,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>621.6</v>
+        <v>619</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -928,13 +1417,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>621.29999999999995</v>
+        <v>618.29999999999995</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -945,13 +1434,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>620.20000000000005</v>
+        <v>617.5</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -962,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>619.6</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -979,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>619</v>
+        <v>616.9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -993,4 +1482,864 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808696CC-5424-48C6-A006-B599320930F6}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>450.9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>448.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>431</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>420.2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>410</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>399.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>388</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>387.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7223EAD-FF22-4098-B6C0-4F0F04BF74F4}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>622.20000000000005</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>619.70000000000005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>618.20000000000005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>616.9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>615</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>612.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>610.70000000000005</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>607.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AB1C12-2E15-4F64-8EC0-DC4A68A377E0}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>249.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>245.8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>224.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>201.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>180.8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>160.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>138.6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>118.1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAC4B83-0D55-4F1F-AB99-63FD0B7C2244}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>247.8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>245.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>221.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>203.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>181.9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>160.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>115.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F10969-A86C-4B18-9E0D-5BFBF25816D0}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>636.79999999999995</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>633.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>631.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>630</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>626.29999999999995</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>626</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>625</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>623.29999999999995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F008C8F2-8834-45EE-9B88-B859B5FD6575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114E145-EACF-4A93-B3BD-803D4BDE5276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11835" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="11910" yWindow="465" windowWidth="21600" windowHeight="13950" firstSheet="2" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="FR3X20" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="R60PR" sheetId="12" r:id="rId4"/>
     <sheet name="AR60" sheetId="13" r:id="rId5"/>
     <sheet name="AR60W" sheetId="14" r:id="rId6"/>
-    <sheet name="AR60PR" sheetId="15" r:id="rId7"/>
+    <sheet name="300STR3X20" sheetId="15" r:id="rId7"/>
+    <sheet name="300FR60PR" sheetId="16" r:id="rId8"/>
+    <sheet name="300FR40PR" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="96">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -65,581 +67,493 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スターチス</t>
-  </si>
-  <si>
-    <t>武藤　　清</t>
+    <t>FR3X20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田 直也</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原 章宏</t>
+    <rPh sb="0" eb="2">
+      <t>シノハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>フロッグ</t>
-  </si>
-  <si>
-    <t>岩崎　京司</t>
-  </si>
-  <si>
-    <t>トリプルA</t>
-  </si>
-  <si>
-    <t>金坂　広幸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR60W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R3X20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田 志穏</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R60PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>垣見 昌男</t>
+    <rPh sb="0" eb="2">
+      <t>カキミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片山 敏郎</t>
+    <rPh sb="0" eb="2">
+      <t>カタヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トシロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大嶋 美和子</t>
+    <rPh sb="0" eb="2">
+      <t>オオシマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミワコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KU SHOOTING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池邉 龍平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>篠原 章宏</t>
+  </si>
+  <si>
+    <t>景山 拓朗</t>
+  </si>
+  <si>
+    <t>田中 貴久</t>
+  </si>
+  <si>
+    <t>木村 圭佑</t>
+  </si>
+  <si>
+    <t>岡田 直也</t>
+  </si>
+  <si>
+    <t>一ノ渡 桜</t>
+  </si>
+  <si>
+    <t>渡部 奏乃音</t>
+  </si>
+  <si>
+    <t>森本 怜花</t>
+  </si>
+  <si>
+    <t>野畑 伽奈</t>
+  </si>
+  <si>
+    <t>田邊 伶奈</t>
+  </si>
+  <si>
+    <t>前田 留那</t>
+  </si>
+  <si>
+    <t>生駒 早織</t>
+  </si>
+  <si>
+    <t>学連大学</t>
+    <rPh sb="0" eb="4">
+      <t>ガクレンダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drippers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="1">
+      <t>サカエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本 拓生</t>
+  </si>
+  <si>
+    <t>京都ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平澤 卓也</t>
+  </si>
+  <si>
+    <t>景山 拓朗</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町田 健太郎</t>
+    <rPh sb="0" eb="2">
+      <t>マチダ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケンタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正満 孝太</t>
+    <rPh sb="0" eb="2">
+      <t>マサミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>藤田 志穏</t>
+  </si>
+  <si>
+    <t>新保 結希</t>
+  </si>
+  <si>
+    <t>新保 結希</t>
+    <rPh sb="0" eb="2">
+      <t>シンホ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノゾミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大嶋 美和子</t>
+  </si>
+  <si>
+    <t>平田 しおり</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉本 衣江</t>
+  </si>
+  <si>
+    <t>長谷川 由佳</t>
+  </si>
+  <si>
+    <t>柳 あさこ</t>
+  </si>
+  <si>
+    <t>岡田 直也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木 由希絵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川 真理絵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長田 好生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>581-21x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>580-29x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>580-23x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>579-22x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>579-20x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>578-27x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>575-21x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>574-23x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRIPPERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>大塩 勇斗</t>
+    <rPh sb="0" eb="2">
+      <t>オオシオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハヤト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎田 晴彦</t>
+    <rPh sb="0" eb="2">
+      <t>マイタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハルヒコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三島 裕介</t>
+    <rPh sb="0" eb="2">
+      <t>ミシマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池邉 龍平</t>
+    <rPh sb="0" eb="2">
+      <t>イケベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300FR40PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300FR60PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300STR3X20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉山　　豪</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カヤマ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">タケシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉田　　亨</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">トオル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歳清　勝晴</t>
+    <rPh sb="0" eb="5">
+      <t>トセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>南出　裕志</t>
     <rPh sb="0" eb="2">
       <t>ミナ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ヒロシ </t>
-    </rPh>
-    <phoneticPr fontId="6"/>
+    <rPh sb="3" eb="5">
+      <t>ヒロセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大槻　政吉</t>
-  </si>
-  <si>
-    <t>歳清　勝晴</t>
-  </si>
-  <si>
-    <t>神奈川SC</t>
-    <rPh sb="0" eb="3">
-      <t>カナガワ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>高橋　義宏</t>
-  </si>
-  <si>
-    <t>原　　英城</t>
-  </si>
-  <si>
-    <t>FR3X20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AR60</t>
-    <phoneticPr fontId="1"/>
+    <rPh sb="0" eb="5">
+      <t>オオテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>髙橋　義宏</t>
+    <rPh sb="0" eb="5">
+      <t>タカハセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>フロッグ</t>
+  </si>
+  <si>
+    <t>スターチス</t>
   </si>
   <si>
     <t>神奈川シューティングクラブ</t>
     <rPh sb="0" eb="3">
       <t>カナガワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほにゃらら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unicorn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホーネット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>流星</t>
-    <rPh sb="0" eb="2">
-      <t>リュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡田 直也</t>
-    <rPh sb="0" eb="2">
-      <t>オカダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナオヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈴木 航太</t>
-    <rPh sb="0" eb="2">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>篠原 章宏</t>
-    <rPh sb="0" eb="2">
-      <t>シノハラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アキヒロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>池邉 龍平</t>
-    <rPh sb="0" eb="2">
-      <t>イケベ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リュウヘイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中 貴久</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タカヒサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>六笠 陸希</t>
-    <rPh sb="0" eb="2">
-      <t>ムカサ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>リク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ノゾミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>穴澤 圭祐</t>
-    <rPh sb="0" eb="2">
-      <t>アナザワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長田 好生</t>
-    <rPh sb="0" eb="2">
-      <t>オサダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨシオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AR60PR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホクリクテーオー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>杉村 和翔</t>
-    <rPh sb="0" eb="2">
-      <t>スギムラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吉田 亨</t>
-    <rPh sb="0" eb="2">
-      <t>ヨシダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トオル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>織田 祐宏</t>
-    <rPh sb="0" eb="2">
-      <t>オダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒居 祥一朗</t>
-    <rPh sb="0" eb="2">
-      <t>アライ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ショウイチロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フロッグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浅利 弥由</t>
-    <rPh sb="0" eb="2">
-      <t>アサリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AR60W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一ノ渡 桜</t>
-    <rPh sb="0" eb="1">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワタリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>和田 愛加里</t>
-    <rPh sb="0" eb="2">
-      <t>ワダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>森本 怜花</t>
-    <rPh sb="0" eb="2">
-      <t>モリモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前田 留那</t>
-    <rPh sb="0" eb="2">
-      <t>マエダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ルナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生駒 沙織</t>
-    <rPh sb="0" eb="2">
-      <t>イコマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サオリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>髙橋 佳伶</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大島 美和子</t>
-    <rPh sb="0" eb="2">
-      <t>オオシマ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ミワコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>劉 炫慈</t>
-    <rPh sb="0" eb="1">
-      <t>リュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次郎長</t>
-    <rPh sb="0" eb="3">
-      <t>ジロチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>栄北三銃士</t>
-    <rPh sb="0" eb="2">
-      <t>サカエキタ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンジュウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R3X20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>栄北三銃士</t>
-    <rPh sb="0" eb="5">
-      <t>サカエキタサンジュウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社 銀座銃砲店</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="5" eb="10">
-      <t>ギンザジュウホウテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>千葉 朔海</t>
-    <rPh sb="0" eb="2">
-      <t>チバ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>柳 あさこ</t>
-    <rPh sb="0" eb="1">
-      <t>ヤナギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田 優子</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>藤田 志穏</t>
-    <rPh sb="0" eb="2">
-      <t>フジタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R60PR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長谷川 由佳</t>
-    <rPh sb="0" eb="3">
-      <t>ハセガワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ユカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鈴木 由希恵</t>
-    <rPh sb="0" eb="2">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石川 真理絵</t>
-    <rPh sb="0" eb="2">
-      <t>イシカワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>リエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小沢 楓</t>
-    <rPh sb="0" eb="2">
-      <t>オザワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カエデ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小澤 綾香</t>
-    <rPh sb="0" eb="2">
-      <t>オザワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アヤカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Back Fire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大阪EXSP</t>
-    <rPh sb="0" eb="2">
-      <t>オオサカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>京都ポイント</t>
-    <rPh sb="0" eb="2">
-      <t>キョウト</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>unicorn</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>チームFUJIHIRA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームGOGO!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信田 健介</t>
-    <rPh sb="0" eb="2">
-      <t>ノブタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスケ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>正満 孝太</t>
-    <rPh sb="0" eb="2">
-      <t>マサミツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>垣見 昌男</t>
-    <rPh sb="0" eb="2">
-      <t>カキミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マサオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>片山 敏郎</t>
-    <rPh sb="0" eb="2">
-      <t>カタヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トシロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山本 拓生</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前田 裕太</t>
-    <rPh sb="0" eb="2">
-      <t>マエダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上竹 強仁</t>
-    <rPh sb="0" eb="2">
-      <t>ウエタケ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジン</t>
-    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>560-10x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>535-11x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>533-9x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>523-9x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>471-6x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>442-3x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -651,7 +565,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +635,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -730,7 +651,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -758,6 +679,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,7 +696,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,10 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -816,6 +742,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -836,9 +790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -876,7 +830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -982,7 +936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1124,7 +1078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,7 +1089,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1162,151 +1116,151 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>454.7</v>
+      <c r="C2" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>454.5</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>444</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>431.6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>421.5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>411</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
+      <c r="E7" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>399.8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>398.4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
+      <c r="C9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1319,7 +1273,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1349,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>624.29999999999995</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>71</v>
+        <v>627</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1366,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>624.29999999999995</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>72</v>
+        <v>625.20000000000005</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1383,13 +1337,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>624.29999999999995</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>73</v>
+        <v>623.1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1400,13 +1354,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>619</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>74</v>
+        <v>622</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1417,13 +1371,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>618.29999999999995</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>75</v>
+        <v>621.4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1434,13 +1388,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>617.5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>76</v>
+        <v>620.29999999999995</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1453,11 +1407,11 @@
       <c r="C8" s="1">
         <v>617.29999999999995</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1468,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>616.9</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>77</v>
+        <v>619.5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1489,12 +1443,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1516,16 +1471,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
-        <v>450.9</v>
+      <c r="C2" s="12">
+        <v>463.8</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>55</v>
@@ -1533,101 +1488,101 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
-        <v>448.5</v>
+      <c r="C3" s="12">
+        <v>446.3</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
-        <v>431</v>
+      <c r="C4" s="12">
+        <v>437.7</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
-        <v>420.2</v>
+      <c r="C5" s="12">
+        <v>427.2</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <v>410</v>
+      <c r="C6" s="12">
+        <v>412.6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
-        <v>399.7</v>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
-        <v>388</v>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -1635,19 +1590,19 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>387.8</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1661,165 +1616,166 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
-        <v>622.20000000000005</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="15">
+        <v>618.79999999999995</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>617.5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>615.9</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13">
-        <v>619.70000000000005</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13">
-        <v>618.20000000000005</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
-        <v>616.9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
+      <c r="C5" s="15">
+        <v>614</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <v>615</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
+      <c r="C6" s="15">
+        <v>612.5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>612.1</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
+        <v>610.70000000000005</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13">
-        <v>610.70000000000005</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15">
+        <v>607.1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13">
-        <v>607.1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1789,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1861,7 +1817,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1870,32 +1826,32 @@
         <v>249.2</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>245.8</v>
+        <v>244.9</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1904,24 +1860,24 @@
         <v>224.4</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>201.7</v>
+        <v>201.1</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1929,16 +1885,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>180.8</v>
+        <v>180.4</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1946,16 +1902,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>160.5</v>
+        <v>158.5</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1963,7 +1919,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1972,7 +1928,7 @@
         <v>138.6</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1980,16 +1936,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>118.1</v>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2006,10 +1962,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2030,138 +1992,138 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>247.8</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
-        <v>245.1</v>
+      <c r="C3" s="12">
+        <v>247.3</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
-        <v>221.3</v>
+      <c r="C4" s="12">
+        <v>225.4</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
-        <v>203.1</v>
+      <c r="C5" s="12">
+        <v>205.9</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <v>181.9</v>
+      <c r="C6" s="12">
+        <v>183.3</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
-        <v>160.5</v>
+      <c r="C7" s="12">
+        <v>163.69999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
-        <v>138</v>
+      <c r="C8" s="12">
+        <v>142.30000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="13">
-        <v>115.7</v>
+      <c r="C9" s="12">
+        <v>120.7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2171,17 +2133,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F10969-A86C-4B18-9E0D-5BFBF25816D0}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50AB4E3-2FAC-44FF-824C-84CA0F1B64EE}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2203,143 +2167,436 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
-        <v>636.79999999999995</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+      <c r="C2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
-        <v>633.6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
+      <c r="C3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
-        <v>631.4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
+      <c r="C4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
-        <v>630</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
+      <c r="C5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <v>626.29999999999995</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
+      <c r="C6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
-        <v>626</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
+      <c r="C7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13">
-        <v>625</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13">
-        <v>623.29999999999995</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818803C-4774-425B-9462-FA582B4A72AC}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="12"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="12"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28E24F0-A0DD-442C-9A86-406E41E2EC6C}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="12"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="12"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="12"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="12"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/individual.xlsx
+++ b/results/individual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114E145-EACF-4A93-B3BD-803D4BDE5276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56F6A3C-68FC-4B13-B328-02CBFC9567C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="465" windowWidth="21600" windowHeight="13950" firstSheet="2" activeTab="6" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="15810" windowHeight="15285" firstSheet="4" activeTab="7" xr2:uid="{4B514285-5D01-416A-93D1-D386939031FF}"/>
   </bookViews>
   <sheets>
     <sheet name="FR3X20" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="118">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1"/>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>300FR40PR</t>
+  </si>
+  <si>
+    <t>300FR40PR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -554,6 +557,111 @@
   </si>
   <si>
     <t>442-3x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>オールドタイマー</t>
+  </si>
+  <si>
+    <t>池袋　賢一</t>
+    <rPh sb="0" eb="2">
+      <t>イケブクロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>城口　保雄</t>
+    <rPh sb="0" eb="2">
+      <t>シログティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田　祐治</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤　宗男</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>神山　直三</t>
+    <rPh sb="0" eb="2">
+      <t>カミヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>400-31x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>397-22x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>385-18x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>385-13x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>369-7x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田　祐宏</t>
+    <rPh sb="0" eb="5">
+      <t>オタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茂木　　孝</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">モギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+  </si>
+  <si>
+    <t>589-19x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>586-29x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>583-18x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>578-18x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>577-20x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>576-13x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -696,7 +804,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,20 +862,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2137,7 +2242,170 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="12"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="12"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818803C-4774-425B-9462-FA582B4A72AC}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -2173,13 +2441,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2190,13 +2458,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2207,13 +2475,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2224,13 +2492,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2241,13 +2509,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2258,180 +2526,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="12"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="12"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="18"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="21"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="21"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818803C-4774-425B-9462-FA582B4A72AC}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2467,10 +2568,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2478,7 +2579,7 @@
     <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2495,103 +2596,117 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="12"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="C7" s="12"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="C8" s="12"/>
       <c r="D8" s="3"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="C9" s="12"/>
       <c r="D9" s="3"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9">
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
     </row>
